--- a/python/result_data/ACS.MC_resultados.xlsx
+++ b/python/result_data/ACS.MC_resultados.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,129 +403,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40581</v>
+        <v>40561</v>
       </c>
       <c r="B2" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9813458392344909</v>
+        <v>0.1071107978482435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40626</v>
+        <v>40581</v>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.131360489818107</v>
+        <v>-0.1224123403979916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40630</v>
+        <v>40594</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9063385139426827</v>
+        <v>2.17281904206436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40652</v>
+        <v>40618</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.206367815109916</v>
+        <v>-0.1224123403979916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40694</v>
+        <v>40630</v>
       </c>
       <c r="B6" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8313311886508744</v>
+        <v>-0.1224123403979916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40703</v>
+        <v>40664</v>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9063385139426827</v>
+        <v>2.517103749433713</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40813</v>
+        <v>40759</v>
       </c>
       <c r="B8" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9688446183525236</v>
+        <v>0.1071107978482435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40814</v>
+        <v>40772</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -534,75 +534,126 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8938372930607154</v>
+        <v>0.1071107978482435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40843</v>
+        <v>40777</v>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8938372930607154</v>
+        <v>-0.3519354786442268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40854</v>
+        <v>40780</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.043851943644332</v>
+        <v>-0.2371739095211092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40868</v>
+        <v>40793</v>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.11885926893614</v>
+        <v>-0.4666970477673444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40870</v>
+        <v>40813</v>
       </c>
       <c r="B13" t="n">
+        <v>71</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.8109817551366971</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>40814</v>
+      </c>
+      <c r="B14" t="n">
+        <v>73</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.581458616890462</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>40827</v>
+      </c>
+      <c r="B15" t="n">
+        <v>67</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.270028031629167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>40857</v>
+      </c>
+      <c r="B16" t="n">
         <v>70</v>
       </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-1.043851943644332</v>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.9257433242598148</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,13 +709,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40582</v>
+        <v>40562</v>
       </c>
       <c r="B2" t="n">
-        <v>19.844891</v>
+        <v>20.559778</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -678,222 +729,282 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40627</v>
+        <v>40582</v>
       </c>
       <c r="B3" t="n">
-        <v>19.269337</v>
+        <v>19.844891</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02900262843469381</v>
+        <v>-0.03477114392966696</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09625748755882932</v>
+        <v>-0.3066073749884458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40631</v>
+        <v>40595</v>
       </c>
       <c r="B4" t="n">
-        <v>19.339815</v>
+        <v>19.392668</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003657520754346777</v>
+        <v>-0.02278788026600898</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6734860817812022</v>
+        <v>-0.1089786911537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40653</v>
+        <v>40619</v>
       </c>
       <c r="B5" t="n">
-        <v>18.817112</v>
+        <v>18.279736</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02702730093333361</v>
+        <v>-0.05738931847850959</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1311690095527812</v>
+        <v>-0.6796276299285603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40695</v>
+        <v>40631</v>
       </c>
       <c r="B6" t="n">
-        <v>19.198858</v>
+        <v>19.339815</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02028717265433722</v>
+        <v>0.05799203008183507</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9673950450586867</v>
+        <v>1.223248305632575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40704</v>
+        <v>40665</v>
       </c>
       <c r="B7" t="n">
-        <v>18.406004</v>
+        <v>20.106236</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04129693547397462</v>
+        <v>0.03962917949318534</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1210295042471855</v>
+        <v>0.9204071018380873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40814</v>
+        <v>40760</v>
       </c>
       <c r="B8" t="n">
-        <v>16.481977</v>
+        <v>16.058969</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1045325753487829</v>
+        <v>-0.2012941159150822</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.238642877609736</v>
+        <v>-3.05291394934299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40815</v>
+        <v>40773</v>
       </c>
       <c r="B9" t="n">
-        <v>16.524582</v>
+        <v>15.824645</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002584944755110286</v>
+        <v>-0.0145914722171766</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6545295995969846</v>
+        <v>0.02619694883291006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40844</v>
+        <v>40778</v>
       </c>
       <c r="B10" t="n">
-        <v>17.397982</v>
+        <v>16.016363</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05285458960474765</v>
+        <v>0.01211515329411794</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.542984709237178</v>
+        <v>0.4666441756991038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40855</v>
+        <v>40781</v>
       </c>
       <c r="B11" t="n">
-        <v>16.09549</v>
+        <v>16.122879</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07486454463511905</v>
+        <v>0.006650448669276665</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7142963547854954</v>
+        <v>0.3765199480374589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40869</v>
+        <v>40794</v>
       </c>
       <c r="B12" t="n">
-        <v>13.569633</v>
+        <v>16.530664</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1569294877012133</v>
+        <v>0.02529231907031004</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.164694864810556</v>
+        <v>0.683962762864877</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40871</v>
+        <v>40814</v>
       </c>
       <c r="B13" t="n">
-        <v>13.234878</v>
+        <v>16.481977</v>
       </c>
       <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.002945253741773568</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2182670637487669</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>40815</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16.524582</v>
+      </c>
+      <c r="C14" t="n">
         <v>3</v>
       </c>
-      <c r="D13" t="n">
-        <v>-0.0246694217890786</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1728416686673108</v>
+      <c r="D14" t="n">
+        <v>0.002584944755110286</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3094714201711826</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>40828</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16.850203</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01970524882263303</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5918204742086313</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>40858</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15.894642</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.05670916842960294</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.6684105556198968</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +1049,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -954,10 +1065,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -987,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1924500897298753</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1022,7 +1133,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1055,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1094,10 +1205,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5857142857142857</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="16">
@@ -1110,10 +1221,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -1126,10 +1237,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5312500000000001</v>
+        <v>0.6933333333333334</v>
       </c>
     </row>
     <row r="19">
@@ -1144,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.316258168426258</v>
+        <v>0.04428144012441861</v>
       </c>
     </row>
     <row r="22">
@@ -1170,10 +1281,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.03444896968615036</v>
+        <v>-0.01617993062795375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.056580962058956</v>
+        <v>0.06063524500157182</v>
       </c>
     </row>
     <row r="24">
@@ -1186,10 +1297,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>83.91666666666667</v>
+        <v>78.06666666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>13.3320311864155</v>
+        <v>8.713718430663736</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1475,7 @@
         <v>40561</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -1524,7 +1635,7 @@
         <v>40581</v>
       </c>
       <c r="B39" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -1628,7 +1739,7 @@
         <v>40594</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
@@ -1820,7 +1931,7 @@
         <v>40618</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -1884,7 +1995,7 @@
         <v>40626</v>
       </c>
       <c r="B84" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1916,7 +2027,7 @@
         <v>40630</v>
       </c>
       <c r="B88" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
@@ -2092,7 +2203,7 @@
         <v>40652</v>
       </c>
       <c r="B110" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2188,7 +2299,7 @@
         <v>40664</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
@@ -2428,7 +2539,7 @@
         <v>40694</v>
       </c>
       <c r="B152" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -2500,7 +2611,7 @@
         <v>40703</v>
       </c>
       <c r="B161" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2676,7 +2787,7 @@
         <v>40725</v>
       </c>
       <c r="B183" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -2948,7 +3059,7 @@
         <v>40759</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218">
@@ -3052,7 +3163,7 @@
         <v>40772</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231">
@@ -3092,7 +3203,7 @@
         <v>40777</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236">
@@ -3116,7 +3227,7 @@
         <v>40780</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239">
@@ -3220,7 +3331,7 @@
         <v>40793</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252">
@@ -3292,7 +3403,7 @@
         <v>40802</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261">
@@ -3388,7 +3499,7 @@
         <v>40814</v>
       </c>
       <c r="B272" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="273">
@@ -3492,7 +3603,7 @@
         <v>40827</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="286">
@@ -3620,7 +3731,7 @@
         <v>40843</v>
       </c>
       <c r="B301" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -3708,7 +3819,7 @@
         <v>40854</v>
       </c>
       <c r="B312" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -3732,7 +3843,7 @@
         <v>40857</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="316">
@@ -3740,7 +3851,7 @@
         <v>40858</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="317">
@@ -3820,7 +3931,7 @@
         <v>40868</v>
       </c>
       <c r="B326" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -3836,7 +3947,7 @@
         <v>40870</v>
       </c>
       <c r="B328" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">

--- a/python/result_data/ACS.MC_resultados.xlsx
+++ b/python/result_data/ACS.MC_resultados.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,257 +403,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40561</v>
+        <v>40626</v>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0.1071107978482435</v>
+        <v>1.048611600363106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40581</v>
+        <v>40652</v>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1224123403979916</v>
+        <v>1.168944079093299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40594</v>
+        <v>40738</v>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.17281904206436</v>
+        <v>1.168944079093299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40618</v>
+        <v>40827</v>
       </c>
       <c r="B5" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1224123403979916</v>
+        <v>-1.11737301678036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40630</v>
+        <v>40843</v>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1224123403979916</v>
+        <v>-0.3953781443992049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40664</v>
+        <v>40868</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.517103749433713</v>
+        <v>-0.8767080593199752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40759</v>
+        <v>40883</v>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1071107978482435</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>40772</v>
-      </c>
-      <c r="B9" t="n">
-        <v>79</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1071107978482435</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>40777</v>
-      </c>
-      <c r="B10" t="n">
-        <v>75</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.3519354786442268</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>40780</v>
-      </c>
-      <c r="B11" t="n">
-        <v>76</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.2371739095211092</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>40793</v>
-      </c>
-      <c r="B12" t="n">
-        <v>74</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.4666970477673444</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>40813</v>
-      </c>
-      <c r="B13" t="n">
-        <v>71</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.8109817551366971</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>40814</v>
-      </c>
-      <c r="B14" t="n">
-        <v>73</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.581458616890462</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>40827</v>
-      </c>
-      <c r="B15" t="n">
-        <v>67</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-1.270028031629167</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>40857</v>
-      </c>
-      <c r="B16" t="n">
-        <v>70</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.9257433242598148</v>
+        <v>-0.9970405380501678</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,13 +573,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40562</v>
+        <v>40627</v>
       </c>
       <c r="B2" t="n">
-        <v>20.559778</v>
+        <v>19.269337</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -729,282 +593,122 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40582</v>
+        <v>40653</v>
       </c>
       <c r="B3" t="n">
-        <v>19.844891</v>
+        <v>18.817112</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03477114392966696</v>
+        <v>-0.02346863309308456</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3066073749884458</v>
+        <v>0.1818934526025321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40595</v>
+        <v>40739</v>
       </c>
       <c r="B4" t="n">
-        <v>19.392668</v>
+        <v>17.656652</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02278788026600898</v>
+        <v>-0.06167046250242869</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1089786911537</v>
+        <v>-0.2288152015771173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40619</v>
+        <v>40828</v>
       </c>
       <c r="B5" t="n">
-        <v>18.279736</v>
+        <v>16.850203</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05738931847850959</v>
+        <v>-0.04567394769971111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6796276299285603</v>
+        <v>-0.0568363417222544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40631</v>
+        <v>40844</v>
       </c>
       <c r="B6" t="n">
-        <v>19.339815</v>
+        <v>17.397982</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05799203008183507</v>
+        <v>0.03250874781745949</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.223248305632575</v>
+        <v>0.7837074267952893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40665</v>
+        <v>40869</v>
       </c>
       <c r="B7" t="n">
-        <v>20.106236</v>
+        <v>13.569633</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03962917949318534</v>
+        <v>-0.2200455776997585</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9204071018380873</v>
+        <v>-1.931509324448941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40760</v>
+        <v>40884</v>
       </c>
       <c r="B8" t="n">
-        <v>16.058969</v>
+        <v>14.601275</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2012941159150822</v>
+        <v>0.07602578492727097</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.05291394934299</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>40773</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15.824645</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.0145914722171766</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.02619694883291006</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>40778</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.016363</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.01211515329411794</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4666441756991038</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>40781</v>
-      </c>
-      <c r="B11" t="n">
-        <v>16.122879</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.006650448669276665</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3765199480374589</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>40794</v>
-      </c>
-      <c r="B12" t="n">
-        <v>16.530664</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.02529231907031004</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.683962762864877</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>40814</v>
-      </c>
-      <c r="B13" t="n">
-        <v>16.481977</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.002945253741773568</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2182670637487669</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>40815</v>
-      </c>
-      <c r="B14" t="n">
-        <v>16.524582</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.002584944755110286</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3094714201711826</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>40828</v>
-      </c>
-      <c r="B15" t="n">
-        <v>16.850203</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.01970524882263303</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5918204742086313</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>40858</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15.894642</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.05670916842960294</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.6684105556198968</v>
+        <v>1.251559988350492</v>
       </c>
     </row>
   </sheetData>
@@ -1065,10 +769,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1136,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="11">
@@ -1166,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -1208,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="16">
@@ -1224,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17">
@@ -1240,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6933333333333334</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="19">
@@ -1255,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04428144012441861</v>
+        <v>0.02061592185989222</v>
       </c>
     </row>
     <row r="22">
@@ -1281,10 +985,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01617993062795375</v>
+        <v>-0.04038734804170874</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06063524500157182</v>
+        <v>0.0930144252393429</v>
       </c>
     </row>
     <row r="24">
@@ -1297,10 +1001,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>78.06666666666666</v>
+        <v>90.28571428571429</v>
       </c>
       <c r="D24" t="n">
-        <v>8.713718430663736</v>
+        <v>8.31030832699942</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1179,7 @@
         <v>40561</v>
       </c>
       <c r="B19" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1635,7 +1339,7 @@
         <v>40581</v>
       </c>
       <c r="B39" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1739,7 +1443,7 @@
         <v>40594</v>
       </c>
       <c r="B52" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1931,7 +1635,7 @@
         <v>40618</v>
       </c>
       <c r="B76" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1995,7 +1699,7 @@
         <v>40626</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
@@ -2027,7 +1731,7 @@
         <v>40630</v>
       </c>
       <c r="B88" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2203,7 +1907,7 @@
         <v>40652</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
@@ -2299,7 +2003,7 @@
         <v>40664</v>
       </c>
       <c r="B122" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2891,7 +2595,7 @@
         <v>40738</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197">
@@ -3059,7 +2763,7 @@
         <v>40759</v>
       </c>
       <c r="B217" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3075,7 +2779,7 @@
         <v>40761</v>
       </c>
       <c r="B219" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -3163,7 +2867,7 @@
         <v>40772</v>
       </c>
       <c r="B230" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -3203,7 +2907,7 @@
         <v>40777</v>
       </c>
       <c r="B235" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3227,7 +2931,7 @@
         <v>40780</v>
       </c>
       <c r="B238" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -3331,7 +3035,7 @@
         <v>40793</v>
       </c>
       <c r="B251" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -3403,7 +3107,7 @@
         <v>40802</v>
       </c>
       <c r="B260" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -3491,7 +3195,7 @@
         <v>40813</v>
       </c>
       <c r="B271" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -3499,7 +3203,7 @@
         <v>40814</v>
       </c>
       <c r="B272" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -3603,7 +3307,7 @@
         <v>40827</v>
       </c>
       <c r="B285" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286">
@@ -3683,7 +3387,7 @@
         <v>40837</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="296">
@@ -3731,7 +3435,7 @@
         <v>40843</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302">
@@ -3739,7 +3443,7 @@
         <v>40844</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="303">
@@ -3843,7 +3547,7 @@
         <v>40857</v>
       </c>
       <c r="B315" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -3851,7 +3555,7 @@
         <v>40858</v>
       </c>
       <c r="B316" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="317">
@@ -3931,7 +3635,7 @@
         <v>40868</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="327">
@@ -4051,7 +3755,7 @@
         <v>40883</v>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="342">
@@ -4233,7 +3937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6269,30 +5973,6 @@
         <v>13.998727</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
-        <v>40905</v>
-      </c>
-      <c r="B254" t="n">
-        <v>13.752226</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
-        <v>40906</v>
-      </c>
-      <c r="B255" t="n">
-        <v>13.901341</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
-        <v>40907</v>
-      </c>
-      <c r="B256" t="n">
-        <v>13.937861</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
